--- a/Producao/Combate_1kg/Material de apoio/Densidades dos materiais.xlsx
+++ b/Producao/Combate_1kg/Material de apoio/Densidades dos materiais.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Poliacetal</t>
   </si>
@@ -43,12 +43,15 @@
   </si>
   <si>
     <t>UNIDADE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aço rapido </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,11 +384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,8 +449,19 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8136</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>